--- a/Data/Transitions/19421945Translation.xlsx
+++ b/Data/Transitions/19421945Translation.xlsx
@@ -484,6 +484,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -704,9 +707,6 @@
   </si>
   <si>
     <t>{319.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3999,29 +3999,29 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>593</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>593</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4043,7 +4043,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4131,29 +4131,29 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>594</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>594</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4483,7 +4483,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4604,29 +4604,29 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>595</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>218</v>
+        <v>595</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4659,29 +4659,29 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>592</v>
+        <v>222</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>223</v>
+        <v>592</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B229" t="s">
         <v>230</v>
